--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt1-Ryk.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Ryk</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,7 +528,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H2">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I2">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J2">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.611633666666667</v>
+        <v>9.673704333333333</v>
       </c>
       <c r="N2">
-        <v>16.834901</v>
+        <v>29.021113</v>
       </c>
       <c r="O2">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="P2">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="Q2">
-        <v>1.281356690357556</v>
+        <v>1.272082446129</v>
       </c>
       <c r="R2">
-        <v>11.532210213218</v>
+        <v>11.448742015161</v>
       </c>
       <c r="S2">
-        <v>0.09447031189679213</v>
+        <v>0.06265293340837851</v>
       </c>
       <c r="T2">
-        <v>0.09447031189679211</v>
+        <v>0.06265293340837851</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +590,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H3">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I3">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J3">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>70.23071899999999</v>
       </c>
       <c r="O3">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="P3">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="Q3">
-        <v>5.345478518660222</v>
+        <v>3.078423105927</v>
       </c>
       <c r="R3">
-        <v>48.10930666794199</v>
+        <v>27.705807953343</v>
       </c>
       <c r="S3">
-        <v>0.3941049566413229</v>
+        <v>0.1516192904362263</v>
       </c>
       <c r="T3">
-        <v>0.3941049566413228</v>
+        <v>0.1516192904362263</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H4">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I4">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J4">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>24.56783033333333</v>
+        <v>23.09142233333333</v>
       </c>
       <c r="N4">
-        <v>73.703491</v>
+        <v>69.27426699999999</v>
       </c>
       <c r="O4">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="P4">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="Q4">
-        <v>5.609801999759778</v>
+        <v>3.036498945411</v>
       </c>
       <c r="R4">
-        <v>50.488217997838</v>
+        <v>27.328490508699</v>
       </c>
       <c r="S4">
-        <v>0.4135926776553311</v>
+        <v>0.1495544308471296</v>
       </c>
       <c r="T4">
-        <v>0.413592677655331</v>
+        <v>0.1495544308471296</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2283393333333333</v>
+        <v>0.131499</v>
       </c>
       <c r="H5">
-        <v>0.685018</v>
+        <v>0.394497</v>
       </c>
       <c r="I5">
-        <v>0.9040802643804376</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="J5">
-        <v>0.9040802643804375</v>
+        <v>0.3654391092296077</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1135936666666667</v>
+        <v>0.2489653333333333</v>
       </c>
       <c r="N5">
-        <v>0.340781</v>
+        <v>0.746896</v>
       </c>
       <c r="O5">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="P5">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="Q5">
-        <v>0.02593790211755555</v>
+        <v>0.03273869236800001</v>
       </c>
       <c r="R5">
-        <v>0.233441119058</v>
+        <v>0.294648231312</v>
       </c>
       <c r="S5">
-        <v>0.00191231818699146</v>
+        <v>0.001612454537873316</v>
       </c>
       <c r="T5">
-        <v>0.00191231818699146</v>
+        <v>0.001612454537873316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -785,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H6">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I6">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J6">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.611633666666667</v>
+        <v>9.673704333333333</v>
       </c>
       <c r="N6">
-        <v>16.834901</v>
+        <v>29.021113</v>
       </c>
       <c r="O6">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="P6">
-        <v>0.1044932796553548</v>
+        <v>0.1714456165911166</v>
       </c>
       <c r="Q6">
-        <v>0.1359474372086667</v>
+        <v>2.208887198337111</v>
       </c>
       <c r="R6">
-        <v>1.223526934878</v>
+        <v>19.879984785034</v>
       </c>
       <c r="S6">
-        <v>0.01002296775856263</v>
+        <v>0.1087926831827381</v>
       </c>
       <c r="T6">
-        <v>0.01002296775856263</v>
+        <v>0.1087926831827381</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -847,16 +847,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H7">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I7">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J7">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>70.23071899999999</v>
       </c>
       <c r="O7">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="P7">
-        <v>0.435918106133421</v>
+        <v>0.4148961799842911</v>
       </c>
       <c r="Q7">
-        <v>0.5671364661646666</v>
+        <v>5.345478518660222</v>
       </c>
       <c r="R7">
-        <v>5.104228195481999</v>
+        <v>48.10930666794199</v>
       </c>
       <c r="S7">
-        <v>0.04181314949209811</v>
+        <v>0.2632768895480647</v>
       </c>
       <c r="T7">
-        <v>0.04181314949209811</v>
+        <v>0.2632768895480647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -909,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H8">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I8">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J8">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>24.56783033333333</v>
+        <v>23.09142233333333</v>
       </c>
       <c r="N8">
-        <v>73.703491</v>
+        <v>69.27426699999999</v>
       </c>
       <c r="O8">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="P8">
-        <v>0.4574734057918678</v>
+        <v>0.4092458280188166</v>
       </c>
       <c r="Q8">
-        <v>0.5951802576553332</v>
+        <v>5.272679981311777</v>
       </c>
       <c r="R8">
-        <v>5.356622318897999</v>
+        <v>47.454119831806</v>
       </c>
       <c r="S8">
-        <v>0.04388072813653678</v>
+        <v>0.259691397171687</v>
       </c>
       <c r="T8">
-        <v>0.04388072813653677</v>
+        <v>0.259691397171687</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.024226</v>
+        <v>0.2283393333333333</v>
       </c>
       <c r="H9">
-        <v>0.07267799999999999</v>
+        <v>0.685018</v>
       </c>
       <c r="I9">
-        <v>0.09591973561956246</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="J9">
-        <v>0.09591973561956245</v>
+        <v>0.6345608907703922</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1135936666666667</v>
+        <v>0.2489653333333333</v>
       </c>
       <c r="N9">
-        <v>0.340781</v>
+        <v>0.746896</v>
       </c>
       <c r="O9">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="P9">
-        <v>0.002115208419356398</v>
+        <v>0.004412375405775742</v>
       </c>
       <c r="Q9">
-        <v>0.002751920168666666</v>
+        <v>0.05684857823644445</v>
       </c>
       <c r="R9">
-        <v>0.024767281518</v>
+        <v>0.5116372041280001</v>
       </c>
       <c r="S9">
-        <v>0.0002028902323649383</v>
+        <v>0.002799920867902426</v>
       </c>
       <c r="T9">
-        <v>0.0002028902323649383</v>
+        <v>0.002799920867902426</v>
       </c>
     </row>
   </sheetData>
